--- a/Table_Processing/Filter_G.xlsx
+++ b/Table_Processing/Filter_G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea/ContrastiveDecodingNew/Table_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27934B8-A651-9A4F-9661-29CD7B16C833}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAF0DC8-08A4-ED45-8491-96CC96F5D86B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23400" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15560" yWindow="540" windowWidth="27200" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter G" sheetId="1" r:id="rId1"/>
@@ -161,16 +161,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>368709</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>40967</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>368732</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>268446</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>193378</xdr:rowOff>
+      <xdr:rowOff>107809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>268469</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>59694</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -193,8 +193,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22655161" y="40967"/>
-          <a:ext cx="11798732" cy="5887895"/>
+          <a:off x="268446" y="5722546"/>
+          <a:ext cx="12031602" cy="5767148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>434474</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>434496</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>185831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="plot_365.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11797632" y="5648158"/>
+          <a:ext cx="12031601" cy="5767147"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -206,39 +250,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>632843</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>167106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>22</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>152410</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="plot_365.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5735484"/>
-          <a:ext cx="11798732" cy="5887894"/>
+      <xdr:colOff>632866</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>118990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="plot_387.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632843" y="11196053"/>
+          <a:ext cx="12031602" cy="5767148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -250,59 +294,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>532580</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>387037</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>130451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>532603</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>152411</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="plot_387.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11675806" y="5735484"/>
-          <a:ext cx="11798732" cy="5887895"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>286774</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>163871</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>286797</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>111443</xdr:rowOff>
+      <xdr:colOff>387060</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>78022</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -325,8 +325,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22573226" y="5694516"/>
-          <a:ext cx="11798732" cy="5887895"/>
+          <a:off x="11750195" y="11159398"/>
+          <a:ext cx="12031602" cy="5762835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -338,39 +338,127 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>40967</xdr:rowOff>
+      <xdr:colOff>501315</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>7546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>22</xdr:colOff>
+      <xdr:colOff>501337</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>159957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="plot_614.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="501315" y="17052283"/>
+          <a:ext cx="12031601" cy="5767148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>558454</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>193378</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="plot_614.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="11511935"/>
-          <a:ext cx="11798732" cy="5887895"/>
+      <xdr:rowOff>115356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>558477</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>62929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="plot_772.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11921612" y="16959567"/>
+          <a:ext cx="12031602" cy="5762836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1078</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>7547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1101</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>159957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="plot_851.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="669499" y="23068073"/>
+          <a:ext cx="12031602" cy="5767147"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -382,106 +470,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>491612</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:colOff>568157</xdr:colOff>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>81935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>491635</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:colOff>568179</xdr:colOff>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>29508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="plot_772.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11634838" y="11552903"/>
-          <a:ext cx="11798732" cy="5887895"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>368709</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>40968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>368732</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>193378</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="plot_851.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22655161" y="11511936"/>
-          <a:ext cx="11798732" cy="5887894"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>81935</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>22</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>29508</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="Picture 10" descr="plot_893.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -501,8 +501,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17288387"/>
-          <a:ext cx="11798732" cy="5887895"/>
+          <a:off x="11931315" y="22941935"/>
+          <a:ext cx="12031601" cy="5762836"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -837,7 +837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="33" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="BC117" sqref="BC117"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
